--- a/SEROFOI/summary_models/CRI-009-02_VPH18.xlsx
+++ b/SEROFOI/summary_models/CRI-009-02_VPH18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A90DD-DDAC-4702-9229-D1222D829D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C09FDEF-E6BA-4941-8544-A3907BD1E218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>Convergencia</t>
   </si>
   <si>
-    <t>Tasa de serorreversion</t>
-  </si>
-  <si>
-    <t>Tasa de serorreversión Rhat</t>
-  </si>
-  <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Tasa de seroreversion</t>
+  </si>
+  <si>
+    <t>Tasa de seroreversión Rhat</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A8" sqref="A8:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,10 +570,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -605,7 +605,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -620,7 +620,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -635,7 +635,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
